--- a/DemandGroup40.xlsx
+++ b/DemandGroup40.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2024/assignments/To Students/Assignment1/Data/Exercise1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luukv\Documents\TU Delft\3. Master TIL\Y2 - Q2\Github Airline (goede)\Airline-optimalisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2960A3CC-05BD-9445-9407-E2ED0359B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41536F33-11C7-44FA-ABC4-53B90C2FEEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="8940" windowWidth="15240" windowHeight="6000" xr2:uid="{F6CBF6EB-6087-2E4A-A0AF-A3475029A3F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6CBF6EB-6087-2E4A-A0AF-A3475029A3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 40" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,31 +569,31 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="9" max="11" width="8.69921875" customWidth="1"/>
+    <col min="12" max="12" width="10.69921875" customWidth="1"/>
+    <col min="13" max="15" width="8.69921875" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" customWidth="1"/>
     <col min="17" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" customWidth="1"/>
+    <col min="21" max="21" width="8.796875" customWidth="1"/>
     <col min="22" max="22" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -604,7 +604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -615,7 +615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -680,7 +680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -810,7 +810,7 @@
         <v>32.697899999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -875,7 +875,7 @@
         <v>-16.7745</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>2</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
